--- a/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/masterOrderImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/masterOrderImportSchema_pl.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5270FE51-558C-124E-80E7-D41B7D4BC9FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="7880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="7875" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pozycje zam. sprzedaży - import" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Łukasz Poniewierski</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{372A805C-D0C9-224C-9A51-FDE70988DBF8}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F8A8717E-0873-A841-A4A9-9B766FA34E84}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A2C6B4F1-3AD8-F44A-A12D-80628B647F39}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C4324388-DED4-9643-9D31-32722B4C2464}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{12A7D35D-B854-594F-AB85-E8D92BA06089}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{98E98232-0BB9-1A4B-A2FE-66B26574026D}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E21FB612-5FA7-B34C-9501-421A54F76541}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{733969AE-FD88-3B46-A4D7-6821ECC818B3}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{55B1F7ED-ACD6-F740-95F6-8C76767CAF77}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0D215F2B-617F-E643-8583-727DC056E072}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{199C83A0-448C-054D-A852-17666DB913A3}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D8EB662C-9382-BA4C-AD8E-E3FA7AF9732E}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{368ABD4C-D696-1048-8085-09F4841F66CF}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9E89FE43-323F-2546-AC15-C5DAB4D83D47}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,17 +537,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -583,6 +574,21 @@
       <name val="Tahoma"/>
       <family val="34"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -592,7 +598,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -600,29 +606,88 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -654,7 +719,7 @@
         <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,7 +768,7 @@
         <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -752,7 +817,7 @@
         <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,7 +866,7 @@
         <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -850,7 +915,7 @@
         <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +964,7 @@
         <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -948,7 +1013,7 @@
         <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -997,7 +1062,7 @@
         <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,7 +1111,7 @@
         <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1160,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1209,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1258,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1307,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,6 +1339,29 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:N2" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Numer" dataDxfId="2"/>
+    <tableColumn id="2" name="Produkt" dataDxfId="1"/>
+    <tableColumn id="3" name="Ilość" dataDxfId="0"/>
+    <tableColumn id="4" name="Nazwa"/>
+    <tableColumn id="5" name="Opis"/>
+    <tableColumn id="6" name="Kontrahent"/>
+    <tableColumn id="7" name="Data rozpoczęcia"/>
+    <tableColumn id="8" name="Data zakończenia"/>
+    <tableColumn id="9" name="Termin ostateczny"/>
+    <tableColumn id="10" name="Data wpływu"/>
+    <tableColumn id="11" name="Opis realizacji"/>
+    <tableColumn id="12" name="Technologia"/>
+    <tableColumn id="13" name="Uwagi"/>
+    <tableColumn id="14" name="Status pozycji"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1572,21 +1660,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="7" max="11" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="7" max="11" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,44 +1687,63 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/masterOrderImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/masterOrderImportSchema_pl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monikajedrysiak/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA7913C-F755-434F-A65A-69E78DBC668F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="7875" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="7880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pozycje zam. sprzedaży - import" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Łukasz Poniewierski</author>
+    <author>Monika Jędrysiak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -432,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -458,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -480,8 +482,71 @@
             <family val="2"/>
             <charset val="238"/>
           </rPr>
-          <t xml:space="preserve">Dana opcjonalna. Podaj wartość zdefiniowaną w słowniku Zlecenie nadrzędne - status pozycji. Jeśli nie wypełnisz kolumny nadamy status Nowa.
-</t>
+          <t xml:space="preserve">Dana opcjonalna. Podaj wartość zdefiniowaną w słowniku Zamówienia sprzedaży - status pozycji. Jeśli nie wypełnisz kolumny nadamy status Nowa.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{8F220F2C-C051-B44E-ABB6-16171ADB1BAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">Dana opcjonalna. Wskaż umówioną datę dostawy zamówionego produktu.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{610A4888-FD8E-984E-9300-D415FE475119}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Dana opcjonalna. Podaj umówioną cenę sprzedaży pozycji zamówienia. Wprowadzona wartość musi być nieujemną liczbą.</t>
         </r>
       </text>
     </comment>
@@ -490,7 +555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Numer</t>
   </si>
@@ -533,12 +598,18 @@
   <si>
     <t>Status pozycji</t>
   </si>
+  <si>
+    <t>Data dostawy pozycji</t>
+  </si>
+  <si>
+    <t>Cena sprzedaży</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -589,6 +660,12 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -598,7 +675,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -606,16 +683,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -684,7 +769,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
     </tableStyle>
   </tableStyles>
@@ -719,7 +804,7 @@
         <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97A3254-EBA0-0A45-BB7C-63DAE4259A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -768,7 +853,7 @@
         <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3324B8BE-F0F9-D04D-B919-178894C1FEE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +902,7 @@
         <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB3432-E52C-E341-8116-3225AC86D3E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +951,7 @@
         <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F131412A-160F-E64F-967F-F09418532A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +1000,7 @@
         <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF3EAF-68FD-9346-813A-9FE8937BB301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,7 +1049,7 @@
         <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E0793-ECA4-F341-A219-451E356AFEAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1098,7 @@
         <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3C515-0182-0C44-8CF1-5B09D4BC5EF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,7 +1147,7 @@
         <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7E608-94EB-4543-94BE-BF3E0B7910AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1196,7 @@
         <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30786922-EB01-134F-BCB4-70E2DC99309B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1245,7 @@
         <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D1A257-F1D4-8E4B-A30F-ABA7BC329DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1209,7 +1294,7 @@
         <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7485639-714A-4747-AD3E-5B7C923BB237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1343,7 @@
         <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CC3FAB-C0BF-A747-A87B-8E61A4DE4DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1392,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B3336-3A71-4546-86DD-F4C78B874A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,24 +1426,30 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:N2" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
-  <autoFilter ref="A1:N2"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Numer" dataDxfId="2"/>
-    <tableColumn id="2" name="Produkt" dataDxfId="1"/>
-    <tableColumn id="3" name="Ilość" dataDxfId="0"/>
-    <tableColumn id="4" name="Nazwa"/>
-    <tableColumn id="5" name="Opis"/>
-    <tableColumn id="6" name="Kontrahent"/>
-    <tableColumn id="7" name="Data rozpoczęcia"/>
-    <tableColumn id="8" name="Data zakończenia"/>
-    <tableColumn id="9" name="Termin ostateczny"/>
-    <tableColumn id="10" name="Data wpływu"/>
-    <tableColumn id="11" name="Opis realizacji"/>
-    <tableColumn id="12" name="Technologia"/>
-    <tableColumn id="13" name="Uwagi"/>
-    <tableColumn id="14" name="Status pozycji"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Numer" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Produkt" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ilość" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nazwa"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Kontrahent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data rozpoczęcia"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data zakończenia"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Termin ostateczny"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Data wpływu"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Opis realizacji"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Technologia"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Uwagi"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Status pozycji"/>
+    <tableColumn id="17" xr3:uid="{D2D22E64-5E0E-224F-BD3A-A2C470778B1F}" name="Data dostawy pozycji"/>
+    <tableColumn id="18" xr3:uid="{9F9A64DB-7077-DC44-97B7-8B3D09DB5B51}" name="Cena sprzedaży"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1660,24 +1751,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="7" max="11" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="7" max="11" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,28 +1805,23 @@
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
